--- a/data/transects_slope_elev_curv_mikey/curvature/transects_curv_adjusted.xlsx
+++ b/data/transects_slope_elev_curv_mikey/curvature/transects_curv_adjusted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\data\transects_slope_elev_curv_mikey\curvature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435EEC8B-192E-4ABE-BA32-FC808635FBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC8CFCD-7561-4780-8B64-8385CBB6EBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC1.1" sheetId="7" r:id="rId1"/>
@@ -311,15 +311,15 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>3.4</c:v>
+            <c:v>3.2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -329,981 +329,2782 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>'LC3.4'!$D$2:$D$160</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="159"/>
+            <c:strRef>
+              <c:f>'LC3.2'!$D:$D</c:f>
+              <c:strCache>
+                <c:ptCount val="459"/>
                 <c:pt idx="0">
+                  <c:v>Shape_Leng</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>138</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>142</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>159</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>458</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LC3.4'!$E$2:$E$160</c:f>
+              <c:f>'LC3.2'!$E:$E</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>-13.006761307718937</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-12.261222639911484</c:v>
+                  <c:v>3.9316979505933052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.5495918455240769</c:v>
+                  <c:v>11.596203665950569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8845041217204197</c:v>
+                  <c:v>1.4308881063555168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3073403149638048</c:v>
+                  <c:v>-7.4447619707030093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.652507660462847</c:v>
+                  <c:v>-10.455631109242113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-23.821070428895034</c:v>
+                  <c:v>-8.1192372836289977</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-28.059010531400592</c:v>
+                  <c:v>-4.2809918631323081</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4848646269901355</c:v>
+                  <c:v>-4.4050783433508371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.684093809968889</c:v>
+                  <c:v>-7.9638683329317193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6994280117703031</c:v>
+                  <c:v>-11.444331391545845</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96461614734572954</c:v>
+                  <c:v>-13.955941015884431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9442827815953301</c:v>
+                  <c:v>-8.2021598390820412</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0889110524032226</c:v>
+                  <c:v>-4.0754063910065703</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.3921895153523733</c:v>
+                  <c:v>-5.9958493987661123</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-7.9583649017606009</c:v>
+                  <c:v>-3.9066537771112664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-8.852690584205094</c:v>
+                  <c:v>0.18232351392892565</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-15.876222688705118</c:v>
+                  <c:v>3.7336537840025605</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.024650474869972</c:v>
+                  <c:v>5.8170521802490445</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.771195109646449</c:v>
+                  <c:v>0.58954504352437853</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.88411629428820604</c:v>
+                  <c:v>-11.813620902685734</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5034557245671616</c:v>
+                  <c:v>-22.55023924490434</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.790473560098004</c:v>
+                  <c:v>-21.709008445130088</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.3824312507697295</c:v>
+                  <c:v>14.054645896293678</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.5155605772275036E-2</c:v>
+                  <c:v>37.419430250557724</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.82928193748402246</c:v>
+                  <c:v>17.945814845829172</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.27132590766310472</c:v>
+                  <c:v>5.7165539323465824</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.7867199718359674</c:v>
+                  <c:v>7.9702355230350825</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-4.6295868175111208</c:v>
+                  <c:v>6.0179870747385058</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.5015593652989403</c:v>
+                  <c:v>-3.4685325143768511</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-2.6975676592674089</c:v>
+                  <c:v>1.0269878741443916</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.8891849951440398</c:v>
+                  <c:v>14.622699206486656</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4175521737017015</c:v>
+                  <c:v>1.5903261468952814</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6011344012378166</c:v>
+                  <c:v>-8.6997108487865251</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-8.348379934589035</c:v>
+                  <c:v>-4.9169559312512385</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-5.1900513859398201</c:v>
+                  <c:v>-17.836668186987357</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-5.0774777528403092</c:v>
+                  <c:v>7.8121725519462411</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-4.8206056054013491</c:v>
+                  <c:v>21.495503567704358</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.8088100973216044</c:v>
+                  <c:v>16.312704152792087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17.860556853868395</c:v>
+                  <c:v>4.2318869989985499</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.7610104643790896</c:v>
+                  <c:v>-2.5582142579828018</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.27845447094405407</c:v>
+                  <c:v>-3.5318677540691703</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.97860311095187402</c:v>
+                  <c:v>9.3463655187428465</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-5.9944359785792649</c:v>
+                  <c:v>3.7544306551347004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-13.033964705596002</c:v>
+                  <c:v>-10.598348500644869</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-4.2238685741603641</c:v>
+                  <c:v>-9.2338482809917366</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.767342787045909</c:v>
+                  <c:v>10.958688412558008</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.6733193087241727</c:v>
+                  <c:v>23.905052873337688</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-4.5084864008963592</c:v>
+                  <c:v>15.701793672538061</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.1172469013791195</c:v>
+                  <c:v>0.16395994487183918</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.5155197707907195</c:v>
+                  <c:v>-7.9195708335995185</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.10300889096198131</c:v>
+                  <c:v>-4.3037453723675441</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.88814278569393612</c:v>
+                  <c:v>4.6690049455746729</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.81394609937287121</c:v>
+                  <c:v>4.084490493479751</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-3.336191255908048</c:v>
+                  <c:v>0.55546526020829601</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.0693884684743853</c:v>
+                  <c:v>-2.7519295912666526</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.8628883306327815</c:v>
+                  <c:v>-15.383696852334456</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.7447188847118178</c:v>
+                  <c:v>-14.20829215699613</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.8244074036407398</c:v>
+                  <c:v>11.189910012080025</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.0620596445299155</c:v>
+                  <c:v>31.945132382828817</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-9.0711298791844897</c:v>
+                  <c:v>29.107577678937169</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-11.801751774063316</c:v>
+                  <c:v>11.171740007221825</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15.99758375873537</c:v>
+                  <c:v>-0.5365256227671007</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>17.605332286425018</c:v>
+                  <c:v>0.19272871957824123</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.3945888944922951</c:v>
+                  <c:v>-1.5173089602266703</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-4.669938571810067</c:v>
+                  <c:v>-3.4345987948445673</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.25902205940293532</c:v>
+                  <c:v>-5.5640948327703832</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.8767521752098073</c:v>
+                  <c:v>-9.2108194707439672</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.1782542634154125</c:v>
+                  <c:v>-2.7964073730665593</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.836572509182929</c:v>
+                  <c:v>6.6723585164583206</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.37225826214128444</c:v>
+                  <c:v>6.9296560095401603</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.23556621574730863</c:v>
+                  <c:v>4.0723222368626137</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.6999338765471705</c:v>
+                  <c:v>3.0312936370778698</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.0904299684840142</c:v>
+                  <c:v>2.8477353126081311</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.33722452309997047</c:v>
+                  <c:v>6.6456085886702789</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-10.196882512454753</c:v>
+                  <c:v>12.069806697980468</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-2.2061405386712214</c:v>
+                  <c:v>7.7397523050051973</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.0176774649485534</c:v>
+                  <c:v>10.651690103485526</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.587756444035674</c:v>
+                  <c:v>2.6527169993389892</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.51648858331920766</c:v>
+                  <c:v>-1.0535946276183898</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.5675309314781103</c:v>
+                  <c:v>-0.68508928803570091</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.0633437056531663</c:v>
+                  <c:v>-3.4399157499282884</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.74455023283821964</c:v>
+                  <c:v>0.74071290990894023</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.82088362967233719</c:v>
+                  <c:v>6.3972490706751897</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.38448910340140796</c:v>
+                  <c:v>5.981677999104722</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.18763342111248982</c:v>
+                  <c:v>3.9941904918859334</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.5700488423866765</c:v>
+                  <c:v>3.3363962678077144</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-6.3701457242804311</c:v>
+                  <c:v>1.562082242257131</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8199417163448426</c:v>
+                  <c:v>-0.18382560243506915</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.4644761448686561</c:v>
+                  <c:v>1.5310842906088764</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.120225170960137</c:v>
+                  <c:v>1.0892713513891568</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-2.0212482986606575</c:v>
+                  <c:v>-3.390759299611271</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.95359249593694373</c:v>
+                  <c:v>-6.441025812889829</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2667062969093796</c:v>
+                  <c:v>-5.3842923690083904</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-1.3476353223807638</c:v>
+                  <c:v>-1.7716774832755933</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.92549202898995175</c:v>
+                  <c:v>-1.8505162070375936</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-1.4160488978020118</c:v>
+                  <c:v>-0.1697554869832576</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.6154306974203365</c:v>
+                  <c:v>5.840867077140369</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.1514630014409364</c:v>
+                  <c:v>6.149682238644397</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.31630261132400811</c:v>
+                  <c:v>3.8648506212607785</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.74908921254505256</c:v>
+                  <c:v>-1.2947027768433625</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-3.7012490026350409</c:v>
+                  <c:v>-4.9183510438731002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.2763784649990937</c:v>
+                  <c:v>-0.88107993044641031</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.2425837677641458</c:v>
+                  <c:v>-0.68465552907579097</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.9845638141036144</c:v>
+                  <c:v>-6.3013942195585217</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.8487780351043597</c:v>
+                  <c:v>2.9271082341452752</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.5183030864332312</c:v>
+                  <c:v>19.234979434279371</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.4205458515861002</c:v>
+                  <c:v>15.551789908830823</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.60160095927190926</c:v>
+                  <c:v>9.222821859493969</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-1.0813964377850811</c:v>
+                  <c:v>10.153200625980947</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.22926782313963512</c:v>
+                  <c:v>11.339723083057974</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.26625311990351208</c:v>
+                  <c:v>1.6573503300757966</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.66824889536056131</c:v>
+                  <c:v>-2.676352424496824</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.1908192978430248</c:v>
+                  <c:v>0.86100994547593834</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5.5289051399126246</c:v>
+                  <c:v>-1.6015984204113352</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.62499485125435572</c:v>
+                  <c:v>-0.72596225581819407</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.74923438184931712</c:v>
+                  <c:v>3.3284166544067078</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-1.0385108970551211</c:v>
+                  <c:v>3.3768626245592723</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.2637434868021744</c:v>
+                  <c:v>1.2884544826580582</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8839497107207501</c:v>
+                  <c:v>-1.5335687297648048</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.201860570250656</c:v>
+                  <c:v>-5.6013697467757684</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.88827584404886295</c:v>
+                  <c:v>-6.7481995820504581</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-3.2696843930258606</c:v>
+                  <c:v>-1.7060653747616241</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-2.5912762118544057</c:v>
+                  <c:v>-0.55273888912992741</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.0516713841652301</c:v>
+                  <c:v>-2.0761878367787086</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.4172430850889883</c:v>
+                  <c:v>-4.2452157948774989</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.73707321966140393</c:v>
+                  <c:v>-3.2057123596786985</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.2418853735049222</c:v>
+                  <c:v>9.5116399048786811</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.2795290157819315</c:v>
+                  <c:v>5.8081128601639813</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.58622936630688072</c:v>
+                  <c:v>0.52231942954796162</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.7072079701664127</c:v>
+                  <c:v>-4.3577552323954896</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-6.0856316774596717</c:v>
+                  <c:v>-2.1198781799102226</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-13.556592098515262</c:v>
+                  <c:v>-2.1232698910963244</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-7.6852128964234634</c:v>
+                  <c:v>-2.2353855860030021</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.98599073963075534</c:v>
+                  <c:v>-2.0924908607761568</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.7607422225722487</c:v>
+                  <c:v>-0.56992019695060536</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.4933455457609486</c:v>
+                  <c:v>2.996440381509665</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.0836946190190075</c:v>
+                  <c:v>6.53858160579653</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.021878646444494</c:v>
+                  <c:v>11.328499882980008</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.97498153187336023</c:v>
+                  <c:v>5.6537589588585186</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.6516264134451735</c:v>
+                  <c:v>-7.7215504056811568</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.2023003716320435</c:v>
+                  <c:v>-6.5554665761000788</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.54759239877068921</c:v>
+                  <c:v>3.8583160252126891</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-0.59116087380080917</c:v>
+                  <c:v>1.9150498056078833</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.0732756566781765</c:v>
+                  <c:v>-8.056170197633481</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-0.32244483213116881</c:v>
+                  <c:v>-3.5115671980868299</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-1.7360327791259325</c:v>
+                  <c:v>7.7438360837269462</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-1.432037252516418</c:v>
+                  <c:v>6.4654896506728488</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-2.8209427537388954</c:v>
+                  <c:v>2.8641669682989708</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-3.2903841011263233</c:v>
+                  <c:v>1.2138207021197249</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-0.35724597964222937</c:v>
+                  <c:v>1.0375421769433923</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.840908352733996</c:v>
+                  <c:v>-0.60782218956014811</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.23640031098819497</c:v>
+                  <c:v>-2.529296960798125</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.46109106146053841</c:v>
+                  <c:v>-0.92896371965484814</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.7569377649880176</c:v>
+                  <c:v>1.0605193141370126</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.4509733099825359</c:v>
+                  <c:v>1.0487520958877417</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.45692405448791101</c:v>
+                  <c:v>1.6250911551050771</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>4.7139377916596965</c:v>
+                  <c:v>2.5389102896708282</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>5.2136639211036702</c:v>
+                  <c:v>0.23534109612984289</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.97883261703792301</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.3719016496092873</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.25188586109627403</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.5147537555524864</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.3607449147683006</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.3646619711481827</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.44256246948213468</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1.4623955781540885</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.3743693296822898E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.1953863795969628</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.1022817490967656</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.59509829044320794</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-2.7006325267345832</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-2.0024617808221539</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.7234836487116691</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.82440377484963845</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.13419281547215794</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.84630240865022655</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.59601665284106531</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.3259374318844879</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.8419457479743293</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.2867997881682562</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.2767860760463721</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.60238195053525445</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.5811585676100295</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.238620058784536</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.21380044448096408</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-3.552024955822958</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-6.8159404845880234E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.4706454149754125</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.98732648950367</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.4866471424825467</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-1.6092354457183977</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-1.9726031025360351</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-1.1640733773803924</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.12128184983728302</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.5030375167956476</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.4608283340669985</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.0780977073085793</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.8380435339449008</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-1.7853468147107845</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-2.7214157165000357</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5.8192407471649096E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.2670918695781395</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-2.550567546048859</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-4.8886477624618108</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-3.9136591771706009</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.1943885734596602</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.8685461515562602</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-2.6857574695065218</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-1.807849225030516</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.53223442479591931</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-2.3434847130707261</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-0.62618232562105081</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.0422750925032662</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.8673915058206001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.5696310779793112</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-0.9957667580288927</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.64618373611172242</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.3010640444163388</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.58878772110998212</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-0.63318892334759169</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-5.9644831912640432</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-5.9212979310930152</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-2.6862479294317225</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-1.4052802191474338</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-2.3991414732532998</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-3.3391229960855568</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-2.2741536999943737</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.5311031925847329</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>8.431432191815464</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.8895338479522046</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.3334315416744911</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.2600949685581972</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.4828073544932594</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-5.4386293737104605</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-7.9250354562097458</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-5.5193838205048742</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-2.4519421185763042</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>6.5386039648563914</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>5.6221736849411013</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-0.52256239146871508</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.1583824789251729</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>6.050587668888447</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.6950101322785205</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-2.6542445178337237</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-4.5154035190150053</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-5.2406877596035217</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-3.2100696087663154</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3.3312925559158</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.8398381918358755</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3.4228500532657127</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-2.8701683103094311</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.6546520441883084</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-1.2234880650981494</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-0.45615422826105889</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.5839811253032696</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.9272781026900097</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.62903865626429434</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-2.0048572252626995</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-5.4119405803137131</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-5.3973497073789529</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-3.0724142501587965</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.97603711466152487</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4.6626805431492571</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>4.1087536699889906</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2.5539829326858632</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-0.21324013660835886</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-1.1036159555338714</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.4838039089754325</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-3.0867191204986426</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-2.4188992017953974</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-3.7947065788753367</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-1.1179144173022237</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.90801329784234142</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-7.6199610318851668E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.78649226320271604</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.4844964029807524</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4.0162827426652896</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.3917609329999596</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>4.4260478576910112</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.709582035473014</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.54007096086153572</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-4.1714810649122391</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-7.9201281197954732</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-0.42942130636754172</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>10.319678796424515</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>7.6935514233714057</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>5.3942202395268177</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.58446476690758509</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-6.0657172266035753</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-10.250416189093386</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-7.6260610496634111</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-3.3371856599613547</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.1481619032058676</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.6901578435272286</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2.8294126252414271</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3.1709977291147022</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-2.3663838638778523</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-8.4551097765080794</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-7.2464460900733147</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-14.958681282987545</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-10.704959852754735</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>9.4923004161243725</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>14.210009481117092</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>12.554388247232678</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>4.0290477192432794</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.9031382790987008</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.54387231349922749</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-3.0616208062558403</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-4.0211102510812262</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-0.60909587552391287</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.070400282933367</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.54663196294810079</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.86358405538361593</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-0.57334729232139314</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-2.0664840995124436</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-7.9858051194781243</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-11.45753141414529</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-3.6560764686313512</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-6.1361973952510986</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2.3128389582578959</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>5.9776938130369022</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.0055759426906297</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.0075193100794047</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>5.0435833363303511</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>5.6105633574985188</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>4.205167469591844</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1.2391274079919787</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-2.7994104747504451</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-4.7621005079774781</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-3.9293539195219784</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.20368505592479211</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>5.3512934266499048</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-3.9661955134281976</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-3.9874481740073113</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>7.6704437773541274</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>3.7465175255398697</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-2.0431193051407304</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-2.4946178184073147</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-2.4662547691582746</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-0.60909540415860153</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>5.8587689383542134</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>11.501167896913707</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>9.2058969983524488</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2.8318989357106781</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2.6491666327441479</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>5.4132044479342998</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.47190518624829847</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-6.1055788906564539</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-4.6589126535448155</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-7.1354168309330346</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-14.480842918149941</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-1.6726601896034397</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>13.879070533575238</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>8.7424913926766088</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.78272916240195867</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-1.8045156864362975</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>8.0203904420556804E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.95218161366679333</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-1.284160051908827</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-1.8120334625006465</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-1.502700768076745</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-2.8260252927766345</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-1.1920230801339624</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-3.3611552629430608E-3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.66194708896978671</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.71226167822551567</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-0.2076475244089806</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-4.1688541960183372</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>3.5906144342458841</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>6.2277807606473559</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-1.0402439069366118</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-7.7123217962366377</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-7.7990656412778261</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-4.1995311741414882</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>6.8455943876211238</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>11.972643995127648</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>9.7620106394457871</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3.8621846692053685</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.69431709890887738</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-0.68731749076709314</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-4.3146581764223075</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-1.7303363715132574</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-1.4088304780704146</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-2.7718492860830475</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-4.2476539535460267</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-4.5502046577111903</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-4.9651811118448554</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-1.0823923627193306</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3.796773971766684</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.537366639407147</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-3.8238027499727156</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>3.9690777436738589</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>9.0378819642077541</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-0.16983412562041211</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-8.0340603698113213</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-3.2358730937736597</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>4.048405256106947</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>5.0246592589401562</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-0.42496023410365125</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-5.1451659407097168</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-2.1815562822986414</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>3.9747919221329777</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>4.1234758019947053</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.2314639958203344</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>-0.37481902905248599</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-4.3253877373627431E-2</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.31221610665659966</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1.8694763630337188</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.2832178423456132</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>-1.2370861550862824</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>-0.64611271269587922</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>-1.1031299391483693</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>-0.94153988245496945</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>-0.97857325832967823</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>-2.9354051760288851</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-1.0717339407756077</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>2.4075714780927737</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>2.458930897865609</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>3.0055311108185427</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>5.3836933694888867</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>5.7746853588888136</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>6.9777170183275823</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>7.5751752960952832</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>-5.2610336921320444E-3</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>-0.80922522454971446</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>-0.45603167878954065</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>2.0052602174202545</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>3.0007425320824854</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>-0.79232400467375319</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>-2.0442773343990153</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>-0.44615640520483524</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0.6694708645009525</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0.29060269218497975</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>-0.70997423940914561</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>-1.0829994120399338</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>-0.5622302552796935</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0.42642809173920415</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>1.7650354613405568</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>-0.1421755512441617</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>-0.81610447636814487</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>2.1267119779461399</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>4.5327586135409936E-2</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.9175132383565066</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>-1.1734318909332802</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>-3.3950820892216385</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>-2.8267069224089885</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>0.11223556164933246</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1.5049925115875606</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.7931926479417466</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1.1040601933284304</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>0.5616158732543346</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>3.6792632896297757E-2</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>-8.0057531211431443E-2</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1.5153985425043774</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>-0.30397039062431358</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>-0.15901064499746853</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>-1.3614334759732609</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>-1.1627008487196977</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A185-4F4F-8F18-DF00144C4145}"/>
+              <c16:uniqueId val="{00000002-A185-4F4F-8F18-DF00144C4145}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1319,6 +3120,1017 @@
         <c:axId val="909637584"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>3.4</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'LC3.4'!$D$2:$D$160</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="159"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>113</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>117</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>121</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>123</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>133</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>137</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>141</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>147</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>153</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>157</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>159</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'LC3.4'!$E$2:$E$160</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="159"/>
+                      <c:pt idx="0">
+                        <c:v>-13.006761307718937</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-12.261222639911484</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-9.5495918455240769</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.8845041217204197</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.3073403149638048</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.652507660462847</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-23.821070428895034</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-28.059010531400592</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.4848646269901355</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>17.684093809968889</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.6994280117703031</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.96461614734572954</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4.9442827815953301</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4.0889110524032226</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-3.3921895153523733</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-7.9583649017606009</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-8.852690584205094</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-15.876222688705118</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>15.024650474869972</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>16.771195109646449</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-0.88411629428820604</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4.5034557245671616</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2.790473560098004</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>-0.3824312507697295</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>-7.5155605772275036E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.82928193748402246</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>-0.27132590766310472</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>-3.7867199718359674</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-4.6295868175111208</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-3.5015593652989403</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>-2.6975676592674089</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>-1.8891849951440398</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.4175521737017015</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.6011344012378166</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-8.348379934589035</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-5.1900513859398201</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>-5.0774777528403092</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>-4.8206056054013491</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>8.8088100973216044</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>17.860556853868395</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>7.7610104643790896</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>-0.27845447094405407</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>-0.97860311095187402</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>-5.9944359785792649</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>-13.033964705596002</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>-4.2238685741603641</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>14.767342787045909</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>8.6733193087241727</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>-4.5084864008963592</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>-3.1172469013791195</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>6.5155197707907195</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.10300889096198131</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.88814278569393612</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.81394609937287121</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>-3.336191255908048</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>-1.0693884684743853</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1.8628883306327815</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>-1.7447188847118178</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>-1.8244074036407398</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>-1.0620596445299155</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>-9.0711298791844897</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>-11.801751774063316</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>15.99758375873537</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>17.605332286425018</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>4.3945888944922951</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>-4.669938571810067</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.25902205940293532</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>5.8767521752098073</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2.1782542634154125</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>5.836572509182929</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.37225826214128444</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>-0.23556621574730863</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>3.6999338765471705</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>4.0904299684840142</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.33722452309997047</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>-10.196882512454753</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>-2.2061405386712214</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>5.0176774649485534</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1.587756444035674</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>-0.51648858331920766</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>1.5675309314781103</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>2.0633437056531663</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.74455023283821964</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>-0.82088362967233719</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.38448910340140796</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.18763342111248982</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>-1.5700488423866765</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>-6.3701457242804311</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>1.8199417163448426</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>3.4644761448686561</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>1.120225170960137</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>-2.0212482986606575</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>-0.95359249593694373</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>1.2667062969093796</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>-1.3476353223807638</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>-0.92549202898995175</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>-1.4160488978020118</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>2.6154306974203365</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>1.1514630014409364</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>-0.31630261132400811</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>0.74908921254505256</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>-3.7012490026350409</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>2.2763784649990937</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>1.2425837677641458</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>1.9845638141036144</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>1.8487780351043597</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>1.5183030864332312</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>1.4205458515861002</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>-0.60160095927190926</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>-1.0813964377850811</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>-0.22926782313963512</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>0.26625311990351208</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>-0.66824889536056131</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>1.1908192978430248</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>5.5289051399126246</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>0.62499485125435572</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>-0.74923438184931712</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>-1.0385108970551211</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>1.2637434868021744</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>2.8839497107207501</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>2.201860570250656</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>-0.88827584404886295</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>-3.2696843930258606</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>-2.5912762118544057</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>2.0516713841652301</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>1.4172430850889883</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>-0.73707321966140393</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>1.2418853735049222</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>2.2795290157819315</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>0.58622936630688072</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>1.7072079701664127</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>-6.0856316774596717</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>-13.556592098515262</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>-7.6852128964234634</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>0.98599073963075534</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>2.7607422225722487</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>2.4933455457609486</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>3.0836946190190075</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>3.021878646444494</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>0.97498153187336023</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>1.6516264134451735</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>3.2023003716320435</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>0.54759239877068921</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>-0.59116087380080917</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>2.0732756566781765</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>-0.32244483213116881</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>-1.7360327791259325</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>-1.432037252516418</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>-2.8209427537388954</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>-3.2903841011263233</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>-0.35724597964222937</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>1.840908352733996</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>0.23640031098819497</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>-0.46109106146053841</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>3.7569377649880176</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>2.4509733099825359</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>-0.45692405448791101</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>4.7139377916596965</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>5.2136639211036702</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-A185-4F4F-8F18-DF00144C4145}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="1"/>
@@ -1340,8 +4152,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'LC3.3'!$D:$D</c15:sqref>
                         </c15:formulaRef>
@@ -2347,8 +5159,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'LC3.3'!$J:$J</c15:sqref>
                         </c15:formulaRef>
@@ -3354,2819 +6166,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A185-4F4F-8F18-DF00144C4145}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:v>3.2</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'LC3.2'!$D:$D</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="459"/>
-                      <c:pt idx="0">
-                        <c:v>Shape_Leng</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>39</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>47</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>49</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>52</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>53</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>57</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>58</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>59</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>61</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>66</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>67</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>69</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>72</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>74</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>77</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>83</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>87</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>94</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>96</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>98</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>99</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>101</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>102</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>103</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>104</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>106</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>107</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>108</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>109</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>111</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>112</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>113</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>114</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>116</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>117</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>118</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>119</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>121</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>122</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>123</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>124</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>126</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>129</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>131</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>132</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>133</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>134</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>136</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>137</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>138</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>139</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>141</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>142</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>143</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>144</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>145</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>146</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>147</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>148</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>149</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>150</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>151</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>152</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>153</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>154</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>155</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>156</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>157</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>158</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>159</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>160</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>161</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>162</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>163</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>164</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>165</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>166</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>167</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>168</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>169</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>171</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>172</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>173</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>174</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>175</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>176</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>177</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>178</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>179</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>180</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>181</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>182</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>183</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>184</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>185</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>186</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>187</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>188</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>189</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>190</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>191</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>192</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>193</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>194</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>195</c:v>
-                      </c:pt>
-                      <c:pt idx="196">
-                        <c:v>196</c:v>
-                      </c:pt>
-                      <c:pt idx="197">
-                        <c:v>197</c:v>
-                      </c:pt>
-                      <c:pt idx="198">
-                        <c:v>198</c:v>
-                      </c:pt>
-                      <c:pt idx="199">
-                        <c:v>199</c:v>
-                      </c:pt>
-                      <c:pt idx="200">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="201">
-                        <c:v>201</c:v>
-                      </c:pt>
-                      <c:pt idx="202">
-                        <c:v>202</c:v>
-                      </c:pt>
-                      <c:pt idx="203">
-                        <c:v>203</c:v>
-                      </c:pt>
-                      <c:pt idx="204">
-                        <c:v>204</c:v>
-                      </c:pt>
-                      <c:pt idx="205">
-                        <c:v>205</c:v>
-                      </c:pt>
-                      <c:pt idx="206">
-                        <c:v>206</c:v>
-                      </c:pt>
-                      <c:pt idx="207">
-                        <c:v>207</c:v>
-                      </c:pt>
-                      <c:pt idx="208">
-                        <c:v>208</c:v>
-                      </c:pt>
-                      <c:pt idx="209">
-                        <c:v>209</c:v>
-                      </c:pt>
-                      <c:pt idx="210">
-                        <c:v>210</c:v>
-                      </c:pt>
-                      <c:pt idx="211">
-                        <c:v>211</c:v>
-                      </c:pt>
-                      <c:pt idx="212">
-                        <c:v>212</c:v>
-                      </c:pt>
-                      <c:pt idx="213">
-                        <c:v>213</c:v>
-                      </c:pt>
-                      <c:pt idx="214">
-                        <c:v>214</c:v>
-                      </c:pt>
-                      <c:pt idx="215">
-                        <c:v>215</c:v>
-                      </c:pt>
-                      <c:pt idx="216">
-                        <c:v>216</c:v>
-                      </c:pt>
-                      <c:pt idx="217">
-                        <c:v>217</c:v>
-                      </c:pt>
-                      <c:pt idx="218">
-                        <c:v>218</c:v>
-                      </c:pt>
-                      <c:pt idx="219">
-                        <c:v>219</c:v>
-                      </c:pt>
-                      <c:pt idx="220">
-                        <c:v>220</c:v>
-                      </c:pt>
-                      <c:pt idx="221">
-                        <c:v>221</c:v>
-                      </c:pt>
-                      <c:pt idx="222">
-                        <c:v>222</c:v>
-                      </c:pt>
-                      <c:pt idx="223">
-                        <c:v>223</c:v>
-                      </c:pt>
-                      <c:pt idx="224">
-                        <c:v>224</c:v>
-                      </c:pt>
-                      <c:pt idx="225">
-                        <c:v>225</c:v>
-                      </c:pt>
-                      <c:pt idx="226">
-                        <c:v>226</c:v>
-                      </c:pt>
-                      <c:pt idx="227">
-                        <c:v>227</c:v>
-                      </c:pt>
-                      <c:pt idx="228">
-                        <c:v>228</c:v>
-                      </c:pt>
-                      <c:pt idx="229">
-                        <c:v>229</c:v>
-                      </c:pt>
-                      <c:pt idx="230">
-                        <c:v>230</c:v>
-                      </c:pt>
-                      <c:pt idx="231">
-                        <c:v>231</c:v>
-                      </c:pt>
-                      <c:pt idx="232">
-                        <c:v>232</c:v>
-                      </c:pt>
-                      <c:pt idx="233">
-                        <c:v>233</c:v>
-                      </c:pt>
-                      <c:pt idx="234">
-                        <c:v>234</c:v>
-                      </c:pt>
-                      <c:pt idx="235">
-                        <c:v>235</c:v>
-                      </c:pt>
-                      <c:pt idx="236">
-                        <c:v>236</c:v>
-                      </c:pt>
-                      <c:pt idx="237">
-                        <c:v>237</c:v>
-                      </c:pt>
-                      <c:pt idx="238">
-                        <c:v>238</c:v>
-                      </c:pt>
-                      <c:pt idx="239">
-                        <c:v>239</c:v>
-                      </c:pt>
-                      <c:pt idx="240">
-                        <c:v>240</c:v>
-                      </c:pt>
-                      <c:pt idx="241">
-                        <c:v>241</c:v>
-                      </c:pt>
-                      <c:pt idx="242">
-                        <c:v>242</c:v>
-                      </c:pt>
-                      <c:pt idx="243">
-                        <c:v>243</c:v>
-                      </c:pt>
-                      <c:pt idx="244">
-                        <c:v>244</c:v>
-                      </c:pt>
-                      <c:pt idx="245">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="246">
-                        <c:v>246</c:v>
-                      </c:pt>
-                      <c:pt idx="247">
-                        <c:v>247</c:v>
-                      </c:pt>
-                      <c:pt idx="248">
-                        <c:v>248</c:v>
-                      </c:pt>
-                      <c:pt idx="249">
-                        <c:v>249</c:v>
-                      </c:pt>
-                      <c:pt idx="250">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="251">
-                        <c:v>251</c:v>
-                      </c:pt>
-                      <c:pt idx="252">
-                        <c:v>252</c:v>
-                      </c:pt>
-                      <c:pt idx="253">
-                        <c:v>253</c:v>
-                      </c:pt>
-                      <c:pt idx="254">
-                        <c:v>254</c:v>
-                      </c:pt>
-                      <c:pt idx="255">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="256">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="257">
-                        <c:v>257</c:v>
-                      </c:pt>
-                      <c:pt idx="258">
-                        <c:v>258</c:v>
-                      </c:pt>
-                      <c:pt idx="259">
-                        <c:v>259</c:v>
-                      </c:pt>
-                      <c:pt idx="260">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="261">
-                        <c:v>261</c:v>
-                      </c:pt>
-                      <c:pt idx="262">
-                        <c:v>262</c:v>
-                      </c:pt>
-                      <c:pt idx="263">
-                        <c:v>263</c:v>
-                      </c:pt>
-                      <c:pt idx="264">
-                        <c:v>264</c:v>
-                      </c:pt>
-                      <c:pt idx="265">
-                        <c:v>265</c:v>
-                      </c:pt>
-                      <c:pt idx="266">
-                        <c:v>266</c:v>
-                      </c:pt>
-                      <c:pt idx="267">
-                        <c:v>267</c:v>
-                      </c:pt>
-                      <c:pt idx="268">
-                        <c:v>268</c:v>
-                      </c:pt>
-                      <c:pt idx="269">
-                        <c:v>269</c:v>
-                      </c:pt>
-                      <c:pt idx="270">
-                        <c:v>270</c:v>
-                      </c:pt>
-                      <c:pt idx="271">
-                        <c:v>271</c:v>
-                      </c:pt>
-                      <c:pt idx="272">
-                        <c:v>272</c:v>
-                      </c:pt>
-                      <c:pt idx="273">
-                        <c:v>273</c:v>
-                      </c:pt>
-                      <c:pt idx="274">
-                        <c:v>274</c:v>
-                      </c:pt>
-                      <c:pt idx="275">
-                        <c:v>275</c:v>
-                      </c:pt>
-                      <c:pt idx="276">
-                        <c:v>276</c:v>
-                      </c:pt>
-                      <c:pt idx="277">
-                        <c:v>277</c:v>
-                      </c:pt>
-                      <c:pt idx="278">
-                        <c:v>278</c:v>
-                      </c:pt>
-                      <c:pt idx="279">
-                        <c:v>279</c:v>
-                      </c:pt>
-                      <c:pt idx="280">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="281">
-                        <c:v>281</c:v>
-                      </c:pt>
-                      <c:pt idx="282">
-                        <c:v>282</c:v>
-                      </c:pt>
-                      <c:pt idx="283">
-                        <c:v>283</c:v>
-                      </c:pt>
-                      <c:pt idx="284">
-                        <c:v>284</c:v>
-                      </c:pt>
-                      <c:pt idx="285">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="286">
-                        <c:v>286</c:v>
-                      </c:pt>
-                      <c:pt idx="287">
-                        <c:v>287</c:v>
-                      </c:pt>
-                      <c:pt idx="288">
-                        <c:v>288</c:v>
-                      </c:pt>
-                      <c:pt idx="289">
-                        <c:v>289</c:v>
-                      </c:pt>
-                      <c:pt idx="290">
-                        <c:v>290</c:v>
-                      </c:pt>
-                      <c:pt idx="291">
-                        <c:v>291</c:v>
-                      </c:pt>
-                      <c:pt idx="292">
-                        <c:v>292</c:v>
-                      </c:pt>
-                      <c:pt idx="293">
-                        <c:v>293</c:v>
-                      </c:pt>
-                      <c:pt idx="294">
-                        <c:v>294</c:v>
-                      </c:pt>
-                      <c:pt idx="295">
-                        <c:v>295</c:v>
-                      </c:pt>
-                      <c:pt idx="296">
-                        <c:v>296</c:v>
-                      </c:pt>
-                      <c:pt idx="297">
-                        <c:v>297</c:v>
-                      </c:pt>
-                      <c:pt idx="298">
-                        <c:v>298</c:v>
-                      </c:pt>
-                      <c:pt idx="299">
-                        <c:v>299</c:v>
-                      </c:pt>
-                      <c:pt idx="300">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="301">
-                        <c:v>301</c:v>
-                      </c:pt>
-                      <c:pt idx="302">
-                        <c:v>302</c:v>
-                      </c:pt>
-                      <c:pt idx="303">
-                        <c:v>303</c:v>
-                      </c:pt>
-                      <c:pt idx="304">
-                        <c:v>304</c:v>
-                      </c:pt>
-                      <c:pt idx="305">
-                        <c:v>305</c:v>
-                      </c:pt>
-                      <c:pt idx="306">
-                        <c:v>306</c:v>
-                      </c:pt>
-                      <c:pt idx="307">
-                        <c:v>307</c:v>
-                      </c:pt>
-                      <c:pt idx="308">
-                        <c:v>308</c:v>
-                      </c:pt>
-                      <c:pt idx="309">
-                        <c:v>309</c:v>
-                      </c:pt>
-                      <c:pt idx="310">
-                        <c:v>310</c:v>
-                      </c:pt>
-                      <c:pt idx="311">
-                        <c:v>311</c:v>
-                      </c:pt>
-                      <c:pt idx="312">
-                        <c:v>312</c:v>
-                      </c:pt>
-                      <c:pt idx="313">
-                        <c:v>313</c:v>
-                      </c:pt>
-                      <c:pt idx="314">
-                        <c:v>314</c:v>
-                      </c:pt>
-                      <c:pt idx="315">
-                        <c:v>315</c:v>
-                      </c:pt>
-                      <c:pt idx="316">
-                        <c:v>316</c:v>
-                      </c:pt>
-                      <c:pt idx="317">
-                        <c:v>317</c:v>
-                      </c:pt>
-                      <c:pt idx="318">
-                        <c:v>318</c:v>
-                      </c:pt>
-                      <c:pt idx="319">
-                        <c:v>319</c:v>
-                      </c:pt>
-                      <c:pt idx="320">
-                        <c:v>320</c:v>
-                      </c:pt>
-                      <c:pt idx="321">
-                        <c:v>321</c:v>
-                      </c:pt>
-                      <c:pt idx="322">
-                        <c:v>322</c:v>
-                      </c:pt>
-                      <c:pt idx="323">
-                        <c:v>323</c:v>
-                      </c:pt>
-                      <c:pt idx="324">
-                        <c:v>324</c:v>
-                      </c:pt>
-                      <c:pt idx="325">
-                        <c:v>325</c:v>
-                      </c:pt>
-                      <c:pt idx="326">
-                        <c:v>326</c:v>
-                      </c:pt>
-                      <c:pt idx="327">
-                        <c:v>327</c:v>
-                      </c:pt>
-                      <c:pt idx="328">
-                        <c:v>328</c:v>
-                      </c:pt>
-                      <c:pt idx="329">
-                        <c:v>329</c:v>
-                      </c:pt>
-                      <c:pt idx="330">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="331">
-                        <c:v>331</c:v>
-                      </c:pt>
-                      <c:pt idx="332">
-                        <c:v>332</c:v>
-                      </c:pt>
-                      <c:pt idx="333">
-                        <c:v>333</c:v>
-                      </c:pt>
-                      <c:pt idx="334">
-                        <c:v>334</c:v>
-                      </c:pt>
-                      <c:pt idx="335">
-                        <c:v>335</c:v>
-                      </c:pt>
-                      <c:pt idx="336">
-                        <c:v>336</c:v>
-                      </c:pt>
-                      <c:pt idx="337">
-                        <c:v>337</c:v>
-                      </c:pt>
-                      <c:pt idx="338">
-                        <c:v>338</c:v>
-                      </c:pt>
-                      <c:pt idx="339">
-                        <c:v>339</c:v>
-                      </c:pt>
-                      <c:pt idx="340">
-                        <c:v>340</c:v>
-                      </c:pt>
-                      <c:pt idx="341">
-                        <c:v>341</c:v>
-                      </c:pt>
-                      <c:pt idx="342">
-                        <c:v>342</c:v>
-                      </c:pt>
-                      <c:pt idx="343">
-                        <c:v>343</c:v>
-                      </c:pt>
-                      <c:pt idx="344">
-                        <c:v>344</c:v>
-                      </c:pt>
-                      <c:pt idx="345">
-                        <c:v>345</c:v>
-                      </c:pt>
-                      <c:pt idx="346">
-                        <c:v>346</c:v>
-                      </c:pt>
-                      <c:pt idx="347">
-                        <c:v>347</c:v>
-                      </c:pt>
-                      <c:pt idx="348">
-                        <c:v>348</c:v>
-                      </c:pt>
-                      <c:pt idx="349">
-                        <c:v>349</c:v>
-                      </c:pt>
-                      <c:pt idx="350">
-                        <c:v>350</c:v>
-                      </c:pt>
-                      <c:pt idx="351">
-                        <c:v>351</c:v>
-                      </c:pt>
-                      <c:pt idx="352">
-                        <c:v>352</c:v>
-                      </c:pt>
-                      <c:pt idx="353">
-                        <c:v>353</c:v>
-                      </c:pt>
-                      <c:pt idx="354">
-                        <c:v>354</c:v>
-                      </c:pt>
-                      <c:pt idx="355">
-                        <c:v>355</c:v>
-                      </c:pt>
-                      <c:pt idx="356">
-                        <c:v>356</c:v>
-                      </c:pt>
-                      <c:pt idx="357">
-                        <c:v>357</c:v>
-                      </c:pt>
-                      <c:pt idx="358">
-                        <c:v>358</c:v>
-                      </c:pt>
-                      <c:pt idx="359">
-                        <c:v>359</c:v>
-                      </c:pt>
-                      <c:pt idx="360">
-                        <c:v>360</c:v>
-                      </c:pt>
-                      <c:pt idx="361">
-                        <c:v>361</c:v>
-                      </c:pt>
-                      <c:pt idx="362">
-                        <c:v>362</c:v>
-                      </c:pt>
-                      <c:pt idx="363">
-                        <c:v>363</c:v>
-                      </c:pt>
-                      <c:pt idx="364">
-                        <c:v>364</c:v>
-                      </c:pt>
-                      <c:pt idx="365">
-                        <c:v>365</c:v>
-                      </c:pt>
-                      <c:pt idx="366">
-                        <c:v>366</c:v>
-                      </c:pt>
-                      <c:pt idx="367">
-                        <c:v>367</c:v>
-                      </c:pt>
-                      <c:pt idx="368">
-                        <c:v>368</c:v>
-                      </c:pt>
-                      <c:pt idx="369">
-                        <c:v>369</c:v>
-                      </c:pt>
-                      <c:pt idx="370">
-                        <c:v>370</c:v>
-                      </c:pt>
-                      <c:pt idx="371">
-                        <c:v>371</c:v>
-                      </c:pt>
-                      <c:pt idx="372">
-                        <c:v>372</c:v>
-                      </c:pt>
-                      <c:pt idx="373">
-                        <c:v>373</c:v>
-                      </c:pt>
-                      <c:pt idx="374">
-                        <c:v>374</c:v>
-                      </c:pt>
-                      <c:pt idx="375">
-                        <c:v>375</c:v>
-                      </c:pt>
-                      <c:pt idx="376">
-                        <c:v>376</c:v>
-                      </c:pt>
-                      <c:pt idx="377">
-                        <c:v>377</c:v>
-                      </c:pt>
-                      <c:pt idx="378">
-                        <c:v>378</c:v>
-                      </c:pt>
-                      <c:pt idx="379">
-                        <c:v>379</c:v>
-                      </c:pt>
-                      <c:pt idx="380">
-                        <c:v>380</c:v>
-                      </c:pt>
-                      <c:pt idx="381">
-                        <c:v>381</c:v>
-                      </c:pt>
-                      <c:pt idx="382">
-                        <c:v>382</c:v>
-                      </c:pt>
-                      <c:pt idx="383">
-                        <c:v>383</c:v>
-                      </c:pt>
-                      <c:pt idx="384">
-                        <c:v>384</c:v>
-                      </c:pt>
-                      <c:pt idx="385">
-                        <c:v>385</c:v>
-                      </c:pt>
-                      <c:pt idx="386">
-                        <c:v>386</c:v>
-                      </c:pt>
-                      <c:pt idx="387">
-                        <c:v>387</c:v>
-                      </c:pt>
-                      <c:pt idx="388">
-                        <c:v>388</c:v>
-                      </c:pt>
-                      <c:pt idx="389">
-                        <c:v>389</c:v>
-                      </c:pt>
-                      <c:pt idx="390">
-                        <c:v>390</c:v>
-                      </c:pt>
-                      <c:pt idx="391">
-                        <c:v>391</c:v>
-                      </c:pt>
-                      <c:pt idx="392">
-                        <c:v>392</c:v>
-                      </c:pt>
-                      <c:pt idx="393">
-                        <c:v>393</c:v>
-                      </c:pt>
-                      <c:pt idx="394">
-                        <c:v>394</c:v>
-                      </c:pt>
-                      <c:pt idx="395">
-                        <c:v>395</c:v>
-                      </c:pt>
-                      <c:pt idx="396">
-                        <c:v>396</c:v>
-                      </c:pt>
-                      <c:pt idx="397">
-                        <c:v>397</c:v>
-                      </c:pt>
-                      <c:pt idx="398">
-                        <c:v>398</c:v>
-                      </c:pt>
-                      <c:pt idx="399">
-                        <c:v>399</c:v>
-                      </c:pt>
-                      <c:pt idx="400">
-                        <c:v>400</c:v>
-                      </c:pt>
-                      <c:pt idx="401">
-                        <c:v>401</c:v>
-                      </c:pt>
-                      <c:pt idx="402">
-                        <c:v>402</c:v>
-                      </c:pt>
-                      <c:pt idx="403">
-                        <c:v>403</c:v>
-                      </c:pt>
-                      <c:pt idx="404">
-                        <c:v>404</c:v>
-                      </c:pt>
-                      <c:pt idx="405">
-                        <c:v>405</c:v>
-                      </c:pt>
-                      <c:pt idx="406">
-                        <c:v>406</c:v>
-                      </c:pt>
-                      <c:pt idx="407">
-                        <c:v>407</c:v>
-                      </c:pt>
-                      <c:pt idx="408">
-                        <c:v>408</c:v>
-                      </c:pt>
-                      <c:pt idx="409">
-                        <c:v>409</c:v>
-                      </c:pt>
-                      <c:pt idx="410">
-                        <c:v>410</c:v>
-                      </c:pt>
-                      <c:pt idx="411">
-                        <c:v>411</c:v>
-                      </c:pt>
-                      <c:pt idx="412">
-                        <c:v>412</c:v>
-                      </c:pt>
-                      <c:pt idx="413">
-                        <c:v>413</c:v>
-                      </c:pt>
-                      <c:pt idx="414">
-                        <c:v>414</c:v>
-                      </c:pt>
-                      <c:pt idx="415">
-                        <c:v>415</c:v>
-                      </c:pt>
-                      <c:pt idx="416">
-                        <c:v>416</c:v>
-                      </c:pt>
-                      <c:pt idx="417">
-                        <c:v>417</c:v>
-                      </c:pt>
-                      <c:pt idx="418">
-                        <c:v>418</c:v>
-                      </c:pt>
-                      <c:pt idx="419">
-                        <c:v>419</c:v>
-                      </c:pt>
-                      <c:pt idx="420">
-                        <c:v>420</c:v>
-                      </c:pt>
-                      <c:pt idx="421">
-                        <c:v>421</c:v>
-                      </c:pt>
-                      <c:pt idx="422">
-                        <c:v>422</c:v>
-                      </c:pt>
-                      <c:pt idx="423">
-                        <c:v>423</c:v>
-                      </c:pt>
-                      <c:pt idx="424">
-                        <c:v>424</c:v>
-                      </c:pt>
-                      <c:pt idx="425">
-                        <c:v>425</c:v>
-                      </c:pt>
-                      <c:pt idx="426">
-                        <c:v>426</c:v>
-                      </c:pt>
-                      <c:pt idx="427">
-                        <c:v>427</c:v>
-                      </c:pt>
-                      <c:pt idx="428">
-                        <c:v>428</c:v>
-                      </c:pt>
-                      <c:pt idx="429">
-                        <c:v>429</c:v>
-                      </c:pt>
-                      <c:pt idx="430">
-                        <c:v>430</c:v>
-                      </c:pt>
-                      <c:pt idx="431">
-                        <c:v>431</c:v>
-                      </c:pt>
-                      <c:pt idx="432">
-                        <c:v>432</c:v>
-                      </c:pt>
-                      <c:pt idx="433">
-                        <c:v>433</c:v>
-                      </c:pt>
-                      <c:pt idx="434">
-                        <c:v>434</c:v>
-                      </c:pt>
-                      <c:pt idx="435">
-                        <c:v>435</c:v>
-                      </c:pt>
-                      <c:pt idx="436">
-                        <c:v>436</c:v>
-                      </c:pt>
-                      <c:pt idx="437">
-                        <c:v>437</c:v>
-                      </c:pt>
-                      <c:pt idx="438">
-                        <c:v>438</c:v>
-                      </c:pt>
-                      <c:pt idx="439">
-                        <c:v>439</c:v>
-                      </c:pt>
-                      <c:pt idx="440">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="441">
-                        <c:v>441</c:v>
-                      </c:pt>
-                      <c:pt idx="442">
-                        <c:v>442</c:v>
-                      </c:pt>
-                      <c:pt idx="443">
-                        <c:v>443</c:v>
-                      </c:pt>
-                      <c:pt idx="444">
-                        <c:v>444</c:v>
-                      </c:pt>
-                      <c:pt idx="445">
-                        <c:v>445</c:v>
-                      </c:pt>
-                      <c:pt idx="446">
-                        <c:v>446</c:v>
-                      </c:pt>
-                      <c:pt idx="447">
-                        <c:v>447</c:v>
-                      </c:pt>
-                      <c:pt idx="448">
-                        <c:v>448</c:v>
-                      </c:pt>
-                      <c:pt idx="449">
-                        <c:v>449</c:v>
-                      </c:pt>
-                      <c:pt idx="450">
-                        <c:v>450</c:v>
-                      </c:pt>
-                      <c:pt idx="451">
-                        <c:v>451</c:v>
-                      </c:pt>
-                      <c:pt idx="452">
-                        <c:v>452</c:v>
-                      </c:pt>
-                      <c:pt idx="453">
-                        <c:v>453</c:v>
-                      </c:pt>
-                      <c:pt idx="454">
-                        <c:v>454</c:v>
-                      </c:pt>
-                      <c:pt idx="455">
-                        <c:v>455</c:v>
-                      </c:pt>
-                      <c:pt idx="456">
-                        <c:v>456</c:v>
-                      </c:pt>
-                      <c:pt idx="457">
-                        <c:v>457</c:v>
-                      </c:pt>
-                      <c:pt idx="458">
-                        <c:v>458</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'LC3.2'!$E:$E</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3.9316979505933052</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>11.596203665950569</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1.4308881063555168</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-7.4447619707030093</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-10.455631109242113</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-8.1192372836289977</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>-4.2809918631323081</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>-4.4050783433508371</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-7.9638683329317193</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>-11.444331391545845</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>-13.955941015884431</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>-8.2021598390820412</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>-4.0754063910065703</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>-5.9958493987661123</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>-3.9066537771112664</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.18232351392892565</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>3.7336537840025605</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>5.8170521802490445</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.58954504352437853</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>-11.813620902685734</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>-22.55023924490434</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>-21.709008445130088</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>14.054645896293678</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>37.419430250557724</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>17.945814845829172</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>5.7165539323465824</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>7.9702355230350825</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>6.0179870747385058</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>-3.4685325143768511</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>1.0269878741443916</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>14.622699206486656</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>1.5903261468952814</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>-8.6997108487865251</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>-4.9169559312512385</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>-17.836668186987357</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>7.8121725519462411</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>21.495503567704358</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>16.312704152792087</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>4.2318869989985499</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>-2.5582142579828018</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>-3.5318677540691703</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>9.3463655187428465</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>3.7544306551347004</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>-10.598348500644869</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>-9.2338482809917366</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>10.958688412558008</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>23.905052873337688</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>15.701793672538061</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>0.16395994487183918</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>-7.9195708335995185</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>-4.3037453723675441</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>4.6690049455746729</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>4.084490493479751</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>0.55546526020829601</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>-2.7519295912666526</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>-15.383696852334456</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>-14.20829215699613</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>11.189910012080025</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>31.945132382828817</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>29.107577678937169</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>11.171740007221825</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>-0.5365256227671007</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>0.19272871957824123</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>-1.5173089602266703</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>-3.4345987948445673</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>-5.5640948327703832</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>-9.2108194707439672</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>-2.7964073730665593</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>6.6723585164583206</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>6.9296560095401603</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>4.0723222368626137</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>3.0312936370778698</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>2.8477353126081311</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>6.6456085886702789</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>12.069806697980468</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>7.7397523050051973</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>10.651690103485526</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>2.6527169993389892</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>-1.0535946276183898</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>-0.68508928803570091</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>-3.4399157499282884</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>0.74071290990894023</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>6.3972490706751897</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>5.981677999104722</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>3.9941904918859334</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>3.3363962678077144</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>1.562082242257131</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>-0.18382560243506915</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>1.5310842906088764</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>1.0892713513891568</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>-3.390759299611271</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>-6.441025812889829</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>-5.3842923690083904</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>-1.7716774832755933</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>-1.8505162070375936</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>-0.1697554869832576</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>5.840867077140369</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>6.149682238644397</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>3.8648506212607785</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>-1.2947027768433625</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>-4.9183510438731002</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>-0.88107993044641031</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>-0.68465552907579097</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>-6.3013942195585217</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>2.9271082341452752</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>19.234979434279371</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>15.551789908830823</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>9.222821859493969</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>10.153200625980947</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>11.339723083057974</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>1.6573503300757966</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>-2.676352424496824</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>0.86100994547593834</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>-1.6015984204113352</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>-0.72596225581819407</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>3.3284166544067078</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>3.3768626245592723</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>1.2884544826580582</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>-1.5335687297648048</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>-5.6013697467757684</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>-6.7481995820504581</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>-1.7060653747616241</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>-0.55273888912992741</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>-2.0761878367787086</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>-4.2452157948774989</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>-3.2057123596786985</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>9.5116399048786811</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>5.8081128601639813</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>0.52231942954796162</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>-4.3577552323954896</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>-2.1198781799102226</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>-2.1232698910963244</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>-2.2353855860030021</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>-2.0924908607761568</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>-0.56992019695060536</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>2.996440381509665</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>6.53858160579653</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>11.328499882980008</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>5.6537589588585186</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>-7.7215504056811568</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>-6.5554665761000788</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>3.8583160252126891</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>1.9150498056078833</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>-8.056170197633481</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>-3.5115671980868299</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>7.7438360837269462</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>6.4654896506728488</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>2.8641669682989708</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>1.2138207021197249</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>1.0375421769433923</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>-0.60782218956014811</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>-2.529296960798125</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>-0.92896371965484814</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>1.0605193141370126</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>1.0487520958877417</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>1.6250911551050771</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>2.5389102896708282</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>0.23534109612984289</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>-0.97883261703792301</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>1.3719016496092873</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>0.25188586109627403</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>-1.5147537555524864</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>3.3607449147683006</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>3.3646619711481827</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>-0.44256246948213468</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>-1.4623955781540885</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>3.3743693296822898E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>1.1953863795969628</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>2.1022817490967656</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>0.59509829044320794</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>-2.7006325267345832</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>-2.0024617808221539</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>1.7234836487116691</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>0.82440377484963845</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>0.13419281547215794</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>-0.84630240865022655</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>-0.59601665284106531</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>2.3259374318844879</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>1.8419457479743293</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>1.2867997881682562</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>1.2767860760463721</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>0.60238195053525445</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>1.5811585676100295</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>1.238620058784536</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>-0.21380044448096408</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>-3.552024955822958</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>-6.8159404845880234E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>5.4706454149754125</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>1.98732648950367</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>-0.4866471424825467</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>-1.6092354457183977</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>-1.9726031025360351</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>-1.1640733773803924</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>-0.12128184983728302</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>2.5030375167956476</c:v>
-                      </c:pt>
-                      <c:pt idx="196">
-                        <c:v>1.4608283340669985</c:v>
-                      </c:pt>
-                      <c:pt idx="197">
-                        <c:v>2.0780977073085793</c:v>
-                      </c:pt>
-                      <c:pt idx="198">
-                        <c:v>1.8380435339449008</c:v>
-                      </c:pt>
-                      <c:pt idx="199">
-                        <c:v>-1.7853468147107845</c:v>
-                      </c:pt>
-                      <c:pt idx="200">
-                        <c:v>-2.7214157165000357</c:v>
-                      </c:pt>
-                      <c:pt idx="201">
-                        <c:v>5.8192407471649096E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="202">
-                        <c:v>3.2670918695781395</c:v>
-                      </c:pt>
-                      <c:pt idx="203">
-                        <c:v>-2.550567546048859</c:v>
-                      </c:pt>
-                      <c:pt idx="204">
-                        <c:v>-4.8886477624618108</c:v>
-                      </c:pt>
-                      <c:pt idx="205">
-                        <c:v>-3.9136591771706009</c:v>
-                      </c:pt>
-                      <c:pt idx="206">
-                        <c:v>4.1943885734596602</c:v>
-                      </c:pt>
-                      <c:pt idx="207">
-                        <c:v>3.8685461515562602</c:v>
-                      </c:pt>
-                      <c:pt idx="208">
-                        <c:v>-2.6857574695065218</c:v>
-                      </c:pt>
-                      <c:pt idx="209">
-                        <c:v>-1.807849225030516</c:v>
-                      </c:pt>
-                      <c:pt idx="210">
-                        <c:v>0.53223442479591931</c:v>
-                      </c:pt>
-                      <c:pt idx="211">
-                        <c:v>-2.3434847130707261</c:v>
-                      </c:pt>
-                      <c:pt idx="212">
-                        <c:v>-0.62618232562105081</c:v>
-                      </c:pt>
-                      <c:pt idx="213">
-                        <c:v>1.0422750925032662</c:v>
-                      </c:pt>
-                      <c:pt idx="214">
-                        <c:v>2.8673915058206001</c:v>
-                      </c:pt>
-                      <c:pt idx="215">
-                        <c:v>2.5696310779793112</c:v>
-                      </c:pt>
-                      <c:pt idx="216">
-                        <c:v>-0.9957667580288927</c:v>
-                      </c:pt>
-                      <c:pt idx="217">
-                        <c:v>0.64618373611172242</c:v>
-                      </c:pt>
-                      <c:pt idx="218">
-                        <c:v>2.3010640444163388</c:v>
-                      </c:pt>
-                      <c:pt idx="219">
-                        <c:v>0.58878772110998212</c:v>
-                      </c:pt>
-                      <c:pt idx="220">
-                        <c:v>-0.63318892334759169</c:v>
-                      </c:pt>
-                      <c:pt idx="221">
-                        <c:v>-5.9644831912640432</c:v>
-                      </c:pt>
-                      <c:pt idx="222">
-                        <c:v>-5.9212979310930152</c:v>
-                      </c:pt>
-                      <c:pt idx="223">
-                        <c:v>-2.6862479294317225</c:v>
-                      </c:pt>
-                      <c:pt idx="224">
-                        <c:v>-1.4052802191474338</c:v>
-                      </c:pt>
-                      <c:pt idx="225">
-                        <c:v>-2.3991414732532998</c:v>
-                      </c:pt>
-                      <c:pt idx="226">
-                        <c:v>-3.3391229960855568</c:v>
-                      </c:pt>
-                      <c:pt idx="227">
-                        <c:v>-2.2741536999943737</c:v>
-                      </c:pt>
-                      <c:pt idx="228">
-                        <c:v>4.5311031925847329</c:v>
-                      </c:pt>
-                      <c:pt idx="229">
-                        <c:v>8.431432191815464</c:v>
-                      </c:pt>
-                      <c:pt idx="230">
-                        <c:v>4.8895338479522046</c:v>
-                      </c:pt>
-                      <c:pt idx="231">
-                        <c:v>2.3334315416744911</c:v>
-                      </c:pt>
-                      <c:pt idx="232">
-                        <c:v>1.2600949685581972</c:v>
-                      </c:pt>
-                      <c:pt idx="233">
-                        <c:v>1.4828073544932594</c:v>
-                      </c:pt>
-                      <c:pt idx="234">
-                        <c:v>-5.4386293737104605</c:v>
-                      </c:pt>
-                      <c:pt idx="235">
-                        <c:v>-7.9250354562097458</c:v>
-                      </c:pt>
-                      <c:pt idx="236">
-                        <c:v>-5.5193838205048742</c:v>
-                      </c:pt>
-                      <c:pt idx="237">
-                        <c:v>-2.4519421185763042</c:v>
-                      </c:pt>
-                      <c:pt idx="238">
-                        <c:v>6.5386039648563914</c:v>
-                      </c:pt>
-                      <c:pt idx="239">
-                        <c:v>5.6221736849411013</c:v>
-                      </c:pt>
-                      <c:pt idx="240">
-                        <c:v>-0.52256239146871508</c:v>
-                      </c:pt>
-                      <c:pt idx="241">
-                        <c:v>2.1583824789251729</c:v>
-                      </c:pt>
-                      <c:pt idx="242">
-                        <c:v>6.050587668888447</c:v>
-                      </c:pt>
-                      <c:pt idx="243">
-                        <c:v>2.6950101322785205</c:v>
-                      </c:pt>
-                      <c:pt idx="244">
-                        <c:v>-2.6542445178337237</c:v>
-                      </c:pt>
-                      <c:pt idx="245">
-                        <c:v>-4.5154035190150053</c:v>
-                      </c:pt>
-                      <c:pt idx="246">
-                        <c:v>-5.2406877596035217</c:v>
-                      </c:pt>
-                      <c:pt idx="247">
-                        <c:v>-3.2100696087663154</c:v>
-                      </c:pt>
-                      <c:pt idx="248">
-                        <c:v>3.3312925559158</c:v>
-                      </c:pt>
-                      <c:pt idx="249">
-                        <c:v>4.8398381918358755</c:v>
-                      </c:pt>
-                      <c:pt idx="250">
-                        <c:v>3.4228500532657127</c:v>
-                      </c:pt>
-                      <c:pt idx="251">
-                        <c:v>-2.8701683103094311</c:v>
-                      </c:pt>
-                      <c:pt idx="252">
-                        <c:v>1.6546520441883084</c:v>
-                      </c:pt>
-                      <c:pt idx="253">
-                        <c:v>-1.2234880650981494</c:v>
-                      </c:pt>
-                      <c:pt idx="254">
-                        <c:v>-0.45615422826105889</c:v>
-                      </c:pt>
-                      <c:pt idx="255">
-                        <c:v>1.5839811253032696</c:v>
-                      </c:pt>
-                      <c:pt idx="256">
-                        <c:v>1.9272781026900097</c:v>
-                      </c:pt>
-                      <c:pt idx="257">
-                        <c:v>0.62903865626429434</c:v>
-                      </c:pt>
-                      <c:pt idx="258">
-                        <c:v>-2.0048572252626995</c:v>
-                      </c:pt>
-                      <c:pt idx="259">
-                        <c:v>-5.4119405803137131</c:v>
-                      </c:pt>
-                      <c:pt idx="260">
-                        <c:v>-5.3973497073789529</c:v>
-                      </c:pt>
-                      <c:pt idx="261">
-                        <c:v>-3.0724142501587965</c:v>
-                      </c:pt>
-                      <c:pt idx="262">
-                        <c:v>0.97603711466152487</c:v>
-                      </c:pt>
-                      <c:pt idx="263">
-                        <c:v>4.6626805431492571</c:v>
-                      </c:pt>
-                      <c:pt idx="264">
-                        <c:v>4.1087536699889906</c:v>
-                      </c:pt>
-                      <c:pt idx="265">
-                        <c:v>2.5539829326858632</c:v>
-                      </c:pt>
-                      <c:pt idx="266">
-                        <c:v>-0.21324013660835886</c:v>
-                      </c:pt>
-                      <c:pt idx="267">
-                        <c:v>-1.1036159555338714</c:v>
-                      </c:pt>
-                      <c:pt idx="268">
-                        <c:v>1.4838039089754325</c:v>
-                      </c:pt>
-                      <c:pt idx="269">
-                        <c:v>-3.0867191204986426</c:v>
-                      </c:pt>
-                      <c:pt idx="270">
-                        <c:v>-2.4188992017953974</c:v>
-                      </c:pt>
-                      <c:pt idx="271">
-                        <c:v>-3.7947065788753367</c:v>
-                      </c:pt>
-                      <c:pt idx="272">
-                        <c:v>-1.1179144173022237</c:v>
-                      </c:pt>
-                      <c:pt idx="273">
-                        <c:v>0.90801329784234142</c:v>
-                      </c:pt>
-                      <c:pt idx="274">
-                        <c:v>-7.6199610318851668E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="275">
-                        <c:v>0.78649226320271604</c:v>
-                      </c:pt>
-                      <c:pt idx="276">
-                        <c:v>2.4844964029807524</c:v>
-                      </c:pt>
-                      <c:pt idx="277">
-                        <c:v>4.0162827426652896</c:v>
-                      </c:pt>
-                      <c:pt idx="278">
-                        <c:v>5.3917609329999596</c:v>
-                      </c:pt>
-                      <c:pt idx="279">
-                        <c:v>4.4260478576910112</c:v>
-                      </c:pt>
-                      <c:pt idx="280">
-                        <c:v>2.709582035473014</c:v>
-                      </c:pt>
-                      <c:pt idx="281">
-                        <c:v>0.54007096086153572</c:v>
-                      </c:pt>
-                      <c:pt idx="282">
-                        <c:v>-4.1714810649122391</c:v>
-                      </c:pt>
-                      <c:pt idx="283">
-                        <c:v>-7.9201281197954732</c:v>
-                      </c:pt>
-                      <c:pt idx="284">
-                        <c:v>-0.42942130636754172</c:v>
-                      </c:pt>
-                      <c:pt idx="285">
-                        <c:v>10.319678796424515</c:v>
-                      </c:pt>
-                      <c:pt idx="286">
-                        <c:v>7.6935514233714057</c:v>
-                      </c:pt>
-                      <c:pt idx="287">
-                        <c:v>5.3942202395268177</c:v>
-                      </c:pt>
-                      <c:pt idx="288">
-                        <c:v>0.58446476690758509</c:v>
-                      </c:pt>
-                      <c:pt idx="289">
-                        <c:v>-6.0657172266035753</c:v>
-                      </c:pt>
-                      <c:pt idx="290">
-                        <c:v>-10.250416189093386</c:v>
-                      </c:pt>
-                      <c:pt idx="291">
-                        <c:v>-7.6260610496634111</c:v>
-                      </c:pt>
-                      <c:pt idx="292">
-                        <c:v>-3.3371856599613547</c:v>
-                      </c:pt>
-                      <c:pt idx="293">
-                        <c:v>1.1481619032058676</c:v>
-                      </c:pt>
-                      <c:pt idx="294">
-                        <c:v>1.6901578435272286</c:v>
-                      </c:pt>
-                      <c:pt idx="295">
-                        <c:v>2.8294126252414271</c:v>
-                      </c:pt>
-                      <c:pt idx="296">
-                        <c:v>3.1709977291147022</c:v>
-                      </c:pt>
-                      <c:pt idx="297">
-                        <c:v>-2.3663838638778523</c:v>
-                      </c:pt>
-                      <c:pt idx="298">
-                        <c:v>-8.4551097765080794</c:v>
-                      </c:pt>
-                      <c:pt idx="299">
-                        <c:v>-7.2464460900733147</c:v>
-                      </c:pt>
-                      <c:pt idx="300">
-                        <c:v>-14.958681282987545</c:v>
-                      </c:pt>
-                      <c:pt idx="301">
-                        <c:v>-10.704959852754735</c:v>
-                      </c:pt>
-                      <c:pt idx="302">
-                        <c:v>9.4923004161243725</c:v>
-                      </c:pt>
-                      <c:pt idx="303">
-                        <c:v>14.210009481117092</c:v>
-                      </c:pt>
-                      <c:pt idx="304">
-                        <c:v>12.554388247232678</c:v>
-                      </c:pt>
-                      <c:pt idx="305">
-                        <c:v>4.0290477192432794</c:v>
-                      </c:pt>
-                      <c:pt idx="306">
-                        <c:v>1.9031382790987008</c:v>
-                      </c:pt>
-                      <c:pt idx="307">
-                        <c:v>0.54387231349922749</c:v>
-                      </c:pt>
-                      <c:pt idx="308">
-                        <c:v>-3.0616208062558403</c:v>
-                      </c:pt>
-                      <c:pt idx="309">
-                        <c:v>-4.0211102510812262</c:v>
-                      </c:pt>
-                      <c:pt idx="310">
-                        <c:v>-0.60909587552391287</c:v>
-                      </c:pt>
-                      <c:pt idx="311">
-                        <c:v>1.070400282933367</c:v>
-                      </c:pt>
-                      <c:pt idx="312">
-                        <c:v>0.54663196294810079</c:v>
-                      </c:pt>
-                      <c:pt idx="313">
-                        <c:v>0.86358405538361593</c:v>
-                      </c:pt>
-                      <c:pt idx="314">
-                        <c:v>-0.57334729232139314</c:v>
-                      </c:pt>
-                      <c:pt idx="315">
-                        <c:v>-2.0664840995124436</c:v>
-                      </c:pt>
-                      <c:pt idx="316">
-                        <c:v>-7.9858051194781243</c:v>
-                      </c:pt>
-                      <c:pt idx="317">
-                        <c:v>-11.45753141414529</c:v>
-                      </c:pt>
-                      <c:pt idx="318">
-                        <c:v>-3.6560764686313512</c:v>
-                      </c:pt>
-                      <c:pt idx="319">
-                        <c:v>-6.1361973952510986</c:v>
-                      </c:pt>
-                      <c:pt idx="320">
-                        <c:v>2.3128389582578959</c:v>
-                      </c:pt>
-                      <c:pt idx="321">
-                        <c:v>5.9776938130369022</c:v>
-                      </c:pt>
-                      <c:pt idx="322">
-                        <c:v>1.0055759426906297</c:v>
-                      </c:pt>
-                      <c:pt idx="323">
-                        <c:v>1.0075193100794047</c:v>
-                      </c:pt>
-                      <c:pt idx="324">
-                        <c:v>5.0435833363303511</c:v>
-                      </c:pt>
-                      <c:pt idx="325">
-                        <c:v>5.6105633574985188</c:v>
-                      </c:pt>
-                      <c:pt idx="326">
-                        <c:v>4.205167469591844</c:v>
-                      </c:pt>
-                      <c:pt idx="327">
-                        <c:v>1.2391274079919787</c:v>
-                      </c:pt>
-                      <c:pt idx="328">
-                        <c:v>-2.7994104747504451</c:v>
-                      </c:pt>
-                      <c:pt idx="329">
-                        <c:v>-4.7621005079774781</c:v>
-                      </c:pt>
-                      <c:pt idx="330">
-                        <c:v>-3.9293539195219784</c:v>
-                      </c:pt>
-                      <c:pt idx="331">
-                        <c:v>0.20368505592479211</c:v>
-                      </c:pt>
-                      <c:pt idx="332">
-                        <c:v>5.3512934266499048</c:v>
-                      </c:pt>
-                      <c:pt idx="333">
-                        <c:v>-3.9661955134281976</c:v>
-                      </c:pt>
-                      <c:pt idx="334">
-                        <c:v>-3.9874481740073113</c:v>
-                      </c:pt>
-                      <c:pt idx="335">
-                        <c:v>7.6704437773541274</c:v>
-                      </c:pt>
-                      <c:pt idx="336">
-                        <c:v>3.7465175255398697</c:v>
-                      </c:pt>
-                      <c:pt idx="337">
-                        <c:v>-2.0431193051407304</c:v>
-                      </c:pt>
-                      <c:pt idx="338">
-                        <c:v>-2.4946178184073147</c:v>
-                      </c:pt>
-                      <c:pt idx="339">
-                        <c:v>-2.4662547691582746</c:v>
-                      </c:pt>
-                      <c:pt idx="340">
-                        <c:v>-0.60909540415860153</c:v>
-                      </c:pt>
-                      <c:pt idx="341">
-                        <c:v>5.8587689383542134</c:v>
-                      </c:pt>
-                      <c:pt idx="342">
-                        <c:v>11.501167896913707</c:v>
-                      </c:pt>
-                      <c:pt idx="343">
-                        <c:v>9.2058969983524488</c:v>
-                      </c:pt>
-                      <c:pt idx="344">
-                        <c:v>2.8318989357106781</c:v>
-                      </c:pt>
-                      <c:pt idx="345">
-                        <c:v>2.6491666327441479</c:v>
-                      </c:pt>
-                      <c:pt idx="346">
-                        <c:v>5.4132044479342998</c:v>
-                      </c:pt>
-                      <c:pt idx="347">
-                        <c:v>0.47190518624829847</c:v>
-                      </c:pt>
-                      <c:pt idx="348">
-                        <c:v>-6.1055788906564539</c:v>
-                      </c:pt>
-                      <c:pt idx="349">
-                        <c:v>-4.6589126535448155</c:v>
-                      </c:pt>
-                      <c:pt idx="350">
-                        <c:v>-7.1354168309330346</c:v>
-                      </c:pt>
-                      <c:pt idx="351">
-                        <c:v>-14.480842918149941</c:v>
-                      </c:pt>
-                      <c:pt idx="352">
-                        <c:v>-1.6726601896034397</c:v>
-                      </c:pt>
-                      <c:pt idx="353">
-                        <c:v>13.879070533575238</c:v>
-                      </c:pt>
-                      <c:pt idx="354">
-                        <c:v>8.7424913926766088</c:v>
-                      </c:pt>
-                      <c:pt idx="355">
-                        <c:v>0.78272916240195867</c:v>
-                      </c:pt>
-                      <c:pt idx="356">
-                        <c:v>-1.8045156864362975</c:v>
-                      </c:pt>
-                      <c:pt idx="357">
-                        <c:v>8.0203904420556804E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="358">
-                        <c:v>0.95218161366679333</c:v>
-                      </c:pt>
-                      <c:pt idx="359">
-                        <c:v>-1.284160051908827</c:v>
-                      </c:pt>
-                      <c:pt idx="360">
-                        <c:v>-1.8120334625006465</c:v>
-                      </c:pt>
-                      <c:pt idx="361">
-                        <c:v>-1.502700768076745</c:v>
-                      </c:pt>
-                      <c:pt idx="362">
-                        <c:v>-2.8260252927766345</c:v>
-                      </c:pt>
-                      <c:pt idx="363">
-                        <c:v>-1.1920230801339624</c:v>
-                      </c:pt>
-                      <c:pt idx="364">
-                        <c:v>-3.3611552629430608E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="365">
-                        <c:v>0.66194708896978671</c:v>
-                      </c:pt>
-                      <c:pt idx="366">
-                        <c:v>0.71226167822551567</c:v>
-                      </c:pt>
-                      <c:pt idx="367">
-                        <c:v>-0.2076475244089806</c:v>
-                      </c:pt>
-                      <c:pt idx="368">
-                        <c:v>-4.1688541960183372</c:v>
-                      </c:pt>
-                      <c:pt idx="369">
-                        <c:v>3.5906144342458841</c:v>
-                      </c:pt>
-                      <c:pt idx="370">
-                        <c:v>6.2277807606473559</c:v>
-                      </c:pt>
-                      <c:pt idx="371">
-                        <c:v>-1.0402439069366118</c:v>
-                      </c:pt>
-                      <c:pt idx="372">
-                        <c:v>-7.7123217962366377</c:v>
-                      </c:pt>
-                      <c:pt idx="373">
-                        <c:v>-7.7990656412778261</c:v>
-                      </c:pt>
-                      <c:pt idx="374">
-                        <c:v>-4.1995311741414882</c:v>
-                      </c:pt>
-                      <c:pt idx="375">
-                        <c:v>6.8455943876211238</c:v>
-                      </c:pt>
-                      <c:pt idx="376">
-                        <c:v>11.972643995127648</c:v>
-                      </c:pt>
-                      <c:pt idx="377">
-                        <c:v>9.7620106394457871</c:v>
-                      </c:pt>
-                      <c:pt idx="378">
-                        <c:v>3.8621846692053685</c:v>
-                      </c:pt>
-                      <c:pt idx="379">
-                        <c:v>0.69431709890887738</c:v>
-                      </c:pt>
-                      <c:pt idx="380">
-                        <c:v>-0.68731749076709314</c:v>
-                      </c:pt>
-                      <c:pt idx="381">
-                        <c:v>-4.3146581764223075</c:v>
-                      </c:pt>
-                      <c:pt idx="382">
-                        <c:v>-1.7303363715132574</c:v>
-                      </c:pt>
-                      <c:pt idx="383">
-                        <c:v>-1.4088304780704146</c:v>
-                      </c:pt>
-                      <c:pt idx="384">
-                        <c:v>-2.7718492860830475</c:v>
-                      </c:pt>
-                      <c:pt idx="385">
-                        <c:v>-4.2476539535460267</c:v>
-                      </c:pt>
-                      <c:pt idx="386">
-                        <c:v>-4.5502046577111903</c:v>
-                      </c:pt>
-                      <c:pt idx="387">
-                        <c:v>-4.9651811118448554</c:v>
-                      </c:pt>
-                      <c:pt idx="388">
-                        <c:v>-1.0823923627193306</c:v>
-                      </c:pt>
-                      <c:pt idx="389">
-                        <c:v>3.796773971766684</c:v>
-                      </c:pt>
-                      <c:pt idx="390">
-                        <c:v>1.537366639407147</c:v>
-                      </c:pt>
-                      <c:pt idx="391">
-                        <c:v>-3.8238027499727156</c:v>
-                      </c:pt>
-                      <c:pt idx="392">
-                        <c:v>3.9690777436738589</c:v>
-                      </c:pt>
-                      <c:pt idx="393">
-                        <c:v>9.0378819642077541</c:v>
-                      </c:pt>
-                      <c:pt idx="394">
-                        <c:v>-0.16983412562041211</c:v>
-                      </c:pt>
-                      <c:pt idx="395">
-                        <c:v>-8.0340603698113213</c:v>
-                      </c:pt>
-                      <c:pt idx="396">
-                        <c:v>-3.2358730937736597</c:v>
-                      </c:pt>
-                      <c:pt idx="397">
-                        <c:v>4.048405256106947</c:v>
-                      </c:pt>
-                      <c:pt idx="398">
-                        <c:v>5.0246592589401562</c:v>
-                      </c:pt>
-                      <c:pt idx="399">
-                        <c:v>-0.42496023410365125</c:v>
-                      </c:pt>
-                      <c:pt idx="400">
-                        <c:v>-5.1451659407097168</c:v>
-                      </c:pt>
-                      <c:pt idx="401">
-                        <c:v>-2.1815562822986414</c:v>
-                      </c:pt>
-                      <c:pt idx="402">
-                        <c:v>3.9747919221329777</c:v>
-                      </c:pt>
-                      <c:pt idx="403">
-                        <c:v>4.1234758019947053</c:v>
-                      </c:pt>
-                      <c:pt idx="404">
-                        <c:v>1.2314639958203344</c:v>
-                      </c:pt>
-                      <c:pt idx="405">
-                        <c:v>-0.37481902905248599</c:v>
-                      </c:pt>
-                      <c:pt idx="406">
-                        <c:v>-4.3253877373627431E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="407">
-                        <c:v>0.31221610665659966</c:v>
-                      </c:pt>
-                      <c:pt idx="408">
-                        <c:v>1.8694763630337188</c:v>
-                      </c:pt>
-                      <c:pt idx="409">
-                        <c:v>0.2832178423456132</c:v>
-                      </c:pt>
-                      <c:pt idx="410">
-                        <c:v>-1.2370861550862824</c:v>
-                      </c:pt>
-                      <c:pt idx="411">
-                        <c:v>-0.64611271269587922</c:v>
-                      </c:pt>
-                      <c:pt idx="412">
-                        <c:v>-1.1031299391483693</c:v>
-                      </c:pt>
-                      <c:pt idx="413">
-                        <c:v>-0.94153988245496945</c:v>
-                      </c:pt>
-                      <c:pt idx="414">
-                        <c:v>-0.97857325832967823</c:v>
-                      </c:pt>
-                      <c:pt idx="415">
-                        <c:v>-2.9354051760288851</c:v>
-                      </c:pt>
-                      <c:pt idx="416">
-                        <c:v>-1.0717339407756077</c:v>
-                      </c:pt>
-                      <c:pt idx="417">
-                        <c:v>2.4075714780927737</c:v>
-                      </c:pt>
-                      <c:pt idx="418">
-                        <c:v>2.458930897865609</c:v>
-                      </c:pt>
-                      <c:pt idx="419">
-                        <c:v>3.0055311108185427</c:v>
-                      </c:pt>
-                      <c:pt idx="420">
-                        <c:v>5.3836933694888867</c:v>
-                      </c:pt>
-                      <c:pt idx="421">
-                        <c:v>5.7746853588888136</c:v>
-                      </c:pt>
-                      <c:pt idx="422">
-                        <c:v>6.9777170183275823</c:v>
-                      </c:pt>
-                      <c:pt idx="423">
-                        <c:v>7.5751752960952832</c:v>
-                      </c:pt>
-                      <c:pt idx="424">
-                        <c:v>-5.2610336921320444E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="425">
-                        <c:v>-0.80922522454971446</c:v>
-                      </c:pt>
-                      <c:pt idx="426">
-                        <c:v>-0.45603167878954065</c:v>
-                      </c:pt>
-                      <c:pt idx="427">
-                        <c:v>2.0052602174202545</c:v>
-                      </c:pt>
-                      <c:pt idx="428">
-                        <c:v>3.0007425320824854</c:v>
-                      </c:pt>
-                      <c:pt idx="429">
-                        <c:v>-0.79232400467375319</c:v>
-                      </c:pt>
-                      <c:pt idx="430">
-                        <c:v>-2.0442773343990153</c:v>
-                      </c:pt>
-                      <c:pt idx="431">
-                        <c:v>-0.44615640520483524</c:v>
-                      </c:pt>
-                      <c:pt idx="432">
-                        <c:v>0.6694708645009525</c:v>
-                      </c:pt>
-                      <c:pt idx="433">
-                        <c:v>0.29060269218497975</c:v>
-                      </c:pt>
-                      <c:pt idx="434">
-                        <c:v>-0.70997423940914561</c:v>
-                      </c:pt>
-                      <c:pt idx="435">
-                        <c:v>-1.0829994120399338</c:v>
-                      </c:pt>
-                      <c:pt idx="436">
-                        <c:v>-0.5622302552796935</c:v>
-                      </c:pt>
-                      <c:pt idx="437">
-                        <c:v>0.42642809173920415</c:v>
-                      </c:pt>
-                      <c:pt idx="438">
-                        <c:v>1.7650354613405568</c:v>
-                      </c:pt>
-                      <c:pt idx="439">
-                        <c:v>-0.1421755512441617</c:v>
-                      </c:pt>
-                      <c:pt idx="440">
-                        <c:v>-0.81610447636814487</c:v>
-                      </c:pt>
-                      <c:pt idx="441">
-                        <c:v>2.1267119779461399</c:v>
-                      </c:pt>
-                      <c:pt idx="442">
-                        <c:v>4.5327586135409936E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="443">
-                        <c:v>1.9175132383565066</c:v>
-                      </c:pt>
-                      <c:pt idx="444">
-                        <c:v>-1.1734318909332802</c:v>
-                      </c:pt>
-                      <c:pt idx="445">
-                        <c:v>-3.3950820892216385</c:v>
-                      </c:pt>
-                      <c:pt idx="446">
-                        <c:v>-2.8267069224089885</c:v>
-                      </c:pt>
-                      <c:pt idx="447">
-                        <c:v>0.11223556164933246</c:v>
-                      </c:pt>
-                      <c:pt idx="448">
-                        <c:v>1.5049925115875606</c:v>
-                      </c:pt>
-                      <c:pt idx="449">
-                        <c:v>1.7931926479417466</c:v>
-                      </c:pt>
-                      <c:pt idx="450">
-                        <c:v>1.1040601933284304</c:v>
-                      </c:pt>
-                      <c:pt idx="451">
-                        <c:v>0.5616158732543346</c:v>
-                      </c:pt>
-                      <c:pt idx="452">
-                        <c:v>3.6792632896297757E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="453">
-                        <c:v>-8.0057531211431443E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="454">
-                        <c:v>1.5153985425043774</c:v>
-                      </c:pt>
-                      <c:pt idx="455">
-                        <c:v>-0.30397039062431358</c:v>
-                      </c:pt>
-                      <c:pt idx="456">
-                        <c:v>-0.15901064499746853</c:v>
-                      </c:pt>
-                      <c:pt idx="457">
-                        <c:v>-1.3614334759732609</c:v>
-                      </c:pt>
-                      <c:pt idx="458">
-                        <c:v>-1.1627008487196977</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-A185-4F4F-8F18-DF00144C4145}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -35406,8 +35408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC5E2C3-57D9-4236-A590-4721D2C20E76}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -64394,7 +64396,7 @@
   </sheetPr>
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
